--- a/заказы/статистика филиалы/2024/05,24/30,05,24 ПОКОМ ЗПФ филиалы/дв 30,05,24 млрсч пок зпф.xlsx
+++ b/заказы/статистика филиалы/2024/05,24/30,05,24 ПОКОМ ЗПФ филиалы/дв 30,05,24 млрсч пок зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\30,05,24 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\05,24\30,05,24 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F6FFF-4B7E-40CF-963F-13D454BC2501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7545B9A7-36A3-408B-87C9-623CAF8DA9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -564,6 +564,7 @@
     <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -873,7 +874,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2454,7 @@
       <c r="AX17" s="1"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="19" t="s">
